--- a/assets/DAY-1 to 2.xlsx
+++ b/assets/DAY-1 to 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hajam\OneDrive\Documents\Jain College\Day 1\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999219D2-940B-45A0-9485-691041ACB119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682ABCA0-69AD-4136-8975-25F5E0F18CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="9" xr2:uid="{FF61FA1D-451C-4472-935F-D7C45D03603F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="4" xr2:uid="{FF61FA1D-451C-4472-935F-D7C45D03603F}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="316">
   <si>
     <t>Employee ID</t>
   </si>
@@ -2778,193 +2778,571 @@
     <t>3. Count how many transactions are for the category “Utilities”.</t>
   </si>
   <si>
-    <t>Countifs answers:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.There are </t>
+    <t>1.What is the average Amount for the Sales department?</t>
+  </si>
+  <si>
+    <t>2.What is the average Amount paid using Credit Card?</t>
+  </si>
+  <si>
+    <t>3.Average “Software” expenses?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERAGEIFS  </t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Total sales</t>
+  </si>
+  <si>
+    <t>West Region</t>
+  </si>
+  <si>
+    <t>South Region</t>
+  </si>
+  <si>
+    <t>&gt;15000</t>
+  </si>
+  <si>
+    <t>Experience (Years)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Banu</t>
+  </si>
+  <si>
+    <t>Charan</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <t>E106</t>
+  </si>
+  <si>
+    <t>Geetha</t>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Q1️⃣ Experience Level</t>
+  </si>
+  <si>
+    <t>Condition:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Experience &lt; 2 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Fresher"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Experience 2–4 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Junior"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Experience 5–6 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Mid"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Experience &gt; 6 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Senior"</t>
+    </r>
+  </si>
+  <si>
+    <t>Q2️⃣ Salary Category</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Salary &lt; 20000 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Low"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20000–39999 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Medium"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">≥ 40000 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"High"</t>
+    </r>
+  </si>
+  <si>
+    <t>Q3️⃣ Bonus Eligibility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Status = Active AND Experience ≥ 3 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Eligible"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Else → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Not Eligible"</t>
+    </r>
+  </si>
+  <si>
+    <t>Q4️⃣ Department Label</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IT → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Tech"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HR → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"People Ops"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sales → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"Business"</t>
+    </r>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Find the </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4 transactions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (5-Jan, 28-Jan, 4-Feb, 27-Feb).</t>
-    </r>
-  </si>
-  <si>
-    <t>COUNTIFS(F:F,"East")</t>
-  </si>
-  <si>
-    <t>2.Marketing used Credit Card 1 time (10-Feb).
-Formula:
-=COUNTIFS(B:B,"Marketing",E:E,"Credit Card")</t>
-  </si>
-  <si>
-    <t>3.Utilities appear 2 times (28-Jan, 27-Feb).
-Formula:
-=COUNTIFS(C:C,"Utilities")</t>
-  </si>
-  <si>
-    <t>Sales amounts: 850 + 4800 = 5650</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Average = 5650 / 2 = </t>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sales of “Phone”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Get the </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2825</t>
-    </r>
-  </si>
-  <si>
-    <t>Formula:</t>
-  </si>
-  <si>
-    <t>Credit Card amounts: 850, 300, 950, 400 → total 2500</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Avg = 2500 / 4 = </t>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Region for Product ID 104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Find the </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>625</t>
-    </r>
-  </si>
-  <si>
-    <t>Software: 1200, 2500 = total 3700</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Average = </t>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category of “Monitor”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Lookup </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1850</t>
-    </r>
-  </si>
-  <si>
-    <t>1.What is the average Amount for the Sales department?</t>
-  </si>
-  <si>
-    <t>2.What is the average Amount paid using Credit Card?</t>
-  </si>
-  <si>
-    <t>3.Average “Software” expenses?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVERAGEIFS  </t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>Heather</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>Sue</t>
-  </si>
-  <si>
-    <t>Luke</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Owen</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Faith</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Donna</t>
-  </si>
-  <si>
-    <t>Phil</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Madeleine</t>
-  </si>
-  <si>
-    <t>Claire</t>
-  </si>
-  <si>
-    <t>Total sales</t>
-  </si>
-  <si>
-    <t>West Region</t>
-  </si>
-  <si>
-    <t>South Region</t>
-  </si>
-  <si>
-    <t>&gt;15000</t>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales for Product ID 101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Product Name sold in the East region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. Return the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Region for Product Name = Chair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7. Find </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales where Product ID = 105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8. Get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category for Product ID 102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9. Find </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Product Name for Sales = 2500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10. Lookup </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Region for Product Name = Laptop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2D3134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2975,7 +3353,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3080,6 +3458,26 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF2D3134"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2D3134"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3101,7 +3499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3137,11 +3535,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3230,7 +3637,47 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3591,8 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73E501D-6D39-47C0-BD3B-731105821A53}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4118,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AF0DE5-FCAA-4833-9A9D-F571E49529D9}">
   <dimension ref="A3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4131,17 +4578,13 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32">
-        <v>22171503</v>
+      <c r="B3" s="42">
+        <v>17145554</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" t="str">
-        <f>IFERROR(VLOOKUP(B3,Table2[],3,FALSE),_xlfn.IFNA(VLOOKUP(B3,Table3[],3,FALSE),"ID not available"))</f>
-        <v>ID not available</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4153,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB401905-ED8C-44A4-B6BF-61CAD9BF0058}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4606,7 +5049,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4672,6 +5115,7 @@
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E4" s="38"/>
     </row>
     <row r="6" spans="1:5">
       <c r="E6" s="2"/>
@@ -4982,10 +5426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58EE07B-7C29-4CAD-B4D4-0B7693CE4381}">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4993,9 +5437,10 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -5006,7 +5451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -5017,7 +5462,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -5028,7 +5473,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -5038,8 +5483,9 @@
       <c r="C4" s="3">
         <v>18000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>87</v>
       </c>
@@ -5050,7 +5496,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -5067,8 +5513,10 @@
         <f>SUMIF(B2:B6,F6,C2:C6)</f>
         <v>33000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="F7" t="s">
         <v>84</v>
       </c>
@@ -5079,8 +5527,10 @@
         <f>SUMIFS(C2:C6,B2:B6,F7,A2:A6,G7)</f>
         <v>33000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="F8" t="s">
         <v>84</v>
       </c>
@@ -5088,39 +5538,47 @@
         <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I8">
         <f>SUMIFS(C2:C6,B2:B6,F8,A2:A6,G8,C2:C6,H8)</f>
         <v>18000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
         <v>93</v>
       </c>
@@ -5556,7 +6014,7 @@
     </row>
     <row r="70" spans="1:2" ht="18">
       <c r="B70" s="27" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18">
@@ -5564,49 +6022,30 @@
     </row>
     <row r="72" spans="1:2" ht="18">
       <c r="A72" s="27" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B72" s="27"/>
     </row>
     <row r="73" spans="1:2" ht="18">
       <c r="A73" s="27" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B73" s="27"/>
     </row>
     <row r="74" spans="1:2" ht="18">
       <c r="A74" s="27" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B74" s="27"/>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>239</v>
-      </c>
-    </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="28" t="s">
-        <v>240</v>
-      </c>
+      <c r="A92" s="28"/>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="28"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="28" t="s">
-        <v>241</v>
-      </c>
+      <c r="A94" s="28"/>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="28"/>
@@ -5617,106 +6056,87 @@
     <row r="97" spans="1:1">
       <c r="A97" s="28"/>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>243</v>
-      </c>
-    </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="29" t="s">
-        <v>244</v>
-      </c>
+      <c r="A101" s="29"/>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="30"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="31">
-        <f>AVERAGEIFS(D:D,B:B,"Sales")</f>
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>246</v>
-      </c>
+      <c r="A103" s="31"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="29" t="s">
-        <v>244</v>
-      </c>
+      <c r="A108" s="29"/>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="30"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="31">
-        <f>AVERAGEIFS(D:D,E:E,"Credit Card")</f>
-        <v>625</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>248</v>
-      </c>
+      <c r="A110" s="31"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="29" t="s">
-        <v>244</v>
-      </c>
+      <c r="A115" s="29"/>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="30"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="31">
-        <f>AVERAGEIFS(D:D,C:C,"Software")</f>
-        <v>1850</v>
-      </c>
+      <c r="A117" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43F0087-A803-471D-B356-F3B739A7F3C8}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:20" ht="30">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="J1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
@@ -5731,8 +6151,26 @@
         <f t="array" ref="D2">_xlfn.IFS(B2&gt;=90,"A",B2&gt;=80,"B",B2&gt;=70,"C",TRUE,"NO grade")</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="J2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="33">
+        <v>1</v>
+      </c>
+      <c r="N2" s="33">
+        <v>18000</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -5747,8 +6185,26 @@
         <f t="array" ref="D3">_xlfn.IFS(B3&gt;=90,"A",B3&gt;=80,"B",B3&gt;=70,"C",TRUE,"NO grade")</f>
         <v>C</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="J3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="33">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33">
+        <v>25000</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
@@ -5763,8 +6219,26 @@
         <f t="array" ref="D4">_xlfn.IFS(B4&gt;=90,"A",B4&gt;=80,"B",B4&gt;=70,"C",TRUE,"NO grade")</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="J4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="33">
+        <v>5</v>
+      </c>
+      <c r="N4" s="33">
+        <v>42000</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>111</v>
       </c>
@@ -5779,8 +6253,26 @@
         <f t="array" ref="D5">_xlfn.IFS(B5&gt;=90,"A",B5&gt;=80,"B",B5&gt;=70,"C",TRUE,"NO grade")</f>
         <v>NO grade</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="J5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="33">
+        <v>2</v>
+      </c>
+      <c r="N5" s="33">
+        <v>22000</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="B6" s="2">
         <v>50</v>
       </c>
@@ -5792,8 +6284,26 @@
         <f t="array" ref="D6">_xlfn.IFS(B6&gt;=90,"A",B6&gt;=80,"B",B6&gt;=70,"C",TRUE,"NO grade")</f>
         <v>NO grade</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="J6" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="33">
+        <v>6</v>
+      </c>
+      <c r="N6" s="33">
+        <v>50000</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7" s="2">
         <v>40</v>
       </c>
@@ -5805,121 +6315,235 @@
         <f t="array" ref="D7">_xlfn.IFS(B7&gt;=90,"A",B7&gt;=80,"B",B7&gt;=70,"C",TRUE,"NO grade")</f>
         <v>NO grade</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5">
+      <c r="J7" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="33">
+        <v>4</v>
+      </c>
+      <c r="N7" s="33">
+        <v>35000</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="J8" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="33">
+        <v>7</v>
+      </c>
+      <c r="N8" s="33">
+        <v>60000</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18">
+      <c r="P10" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5">
       <c r="A11" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="P12" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="P13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="T13" s="35"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="P14" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="P15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="T15" s="35"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="P16" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="P17" s="35"/>
+      <c r="R17" s="35"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B18" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="P18" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="P20" s="35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:18">
       <c r="A22" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:18" ht="18">
       <c r="A23" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="P23" s="43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="12" t="str" cm="1">
         <f t="array" ref="A24">_xlfn.IFS(B2&gt;=90, "A", B2&gt;=80, "B", B2&gt;=70, "C", B2&gt;=60, "D", TRUE, "F")</f>
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:18">
       <c r="A25" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="P25" s="41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="P26" s="44"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="P27" s="44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="P28" s="44"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="P29" s="44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="8" t="s">
         <v>120</v>
+      </c>
+      <c r="P30" s="44"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="P31" s="44" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5929,19 +6553,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF152213-EBA3-4E01-8913-E7422C0CF11B}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:18" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -5951,8 +6580,24 @@
       <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="K1" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -5962,8 +6607,23 @@
       <c r="C2" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5">
+      <c r="K2" s="45">
+        <v>101</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="45">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="29.25" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -5973,8 +6633,25 @@
       <c r="C3" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" s="38"/>
+      <c r="K3" s="45">
+        <v>102</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="45">
+        <v>3000</v>
+      </c>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
@@ -5984,8 +6661,24 @@
       <c r="C4" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="K4" s="45">
+        <v>103</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="45">
+        <v>1500</v>
+      </c>
+      <c r="Q4" s="48"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>130</v>
       </c>
@@ -5995,33 +6688,102 @@
       <c r="C5" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
+      <c r="E5" s="38"/>
+      <c r="K5" s="45">
+        <v>104</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="O5" s="45">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+      <c r="K6" s="45">
+        <v>105</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="45">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18">
+      <c r="R7" s="46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18">
+      <c r="E8" s="38"/>
+      <c r="R8" s="46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18">
+      <c r="R9" s="46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18">
+      <c r="R10" s="46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18">
       <c r="A11" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="R11" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="R12" s="46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18">
       <c r="A13" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="R13" s="46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="R14" s="46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="R15" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -6030,6 +6792,9 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="R16" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6140,8 +6905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7840248D-B1DB-41B6-A7CF-104B77DD1349}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6181,6 +6946,9 @@
       <c r="B4" s="2" t="s">
         <v>149</v>
       </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="38"/>
     </row>
     <row r="10" spans="1:2" ht="16.5">
       <c r="A10" s="4" t="s">
@@ -6333,7 +7101,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6344,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6352,7 +7120,7 @@
         <v>171501</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C3">
         <v>25000</v>
@@ -6363,7 +7131,7 @@
         <v>171502</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C4">
         <v>45000</v>
@@ -6374,7 +7142,7 @@
         <v>171503</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C5">
         <v>36000</v>
@@ -6385,7 +7153,7 @@
         <v>171504</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C6">
         <v>15000</v>
@@ -6396,7 +7164,7 @@
         <v>171505</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C7">
         <v>25000</v>
@@ -6407,7 +7175,7 @@
         <v>171506</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C8">
         <v>58000</v>
@@ -6418,7 +7186,7 @@
         <v>171507</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C9">
         <v>49000</v>
@@ -6429,7 +7197,7 @@
         <v>171508</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C10">
         <v>47000</v>
@@ -6440,7 +7208,7 @@
         <v>171509</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C11">
         <v>53000</v>
@@ -6451,7 +7219,7 @@
         <v>171510</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C12">
         <v>29000</v>
@@ -6470,7 +7238,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6482,7 +7250,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6493,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6501,7 +7269,7 @@
         <v>171550</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C3">
         <v>65000</v>
@@ -6512,7 +7280,7 @@
         <v>171551</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C4">
         <v>85000</v>
@@ -6523,7 +7291,7 @@
         <v>171552</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C5">
         <v>48000</v>
@@ -6534,7 +7302,7 @@
         <v>171553</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C6">
         <v>36000</v>
@@ -6545,7 +7313,7 @@
         <v>171554</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C7">
         <v>47000</v>
@@ -6556,7 +7324,7 @@
         <v>171555</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C8">
         <v>15000</v>
@@ -6567,7 +7335,7 @@
         <v>171556</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C9">
         <v>29000</v>
@@ -6578,7 +7346,7 @@
         <v>171557</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C10">
         <v>77000</v>
@@ -6589,7 +7357,7 @@
         <v>171558</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C11">
         <v>25000</v>
@@ -6600,7 +7368,7 @@
         <v>171559</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C12">
         <v>33000</v>
